--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentViaHome.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentViaHome.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="73">
   <si>
     <t>Case</t>
   </si>
@@ -211,6 +211,33 @@
   </si>
   <si>
     <t>When valid bill details are provided 19154110419405</t>
+  </si>
+  <si>
+    <t>consumer_number_label_query</t>
+  </si>
+  <si>
+    <t>SELECT CH.CONSUMER_NO_LABEL FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>paid_marking_query</t>
+  </si>
+  <si>
+    <t>LP_BillStatus_query</t>
+  </si>
+  <si>
+    <t>partial_payment_check_query</t>
+  </si>
+  <si>
+    <t>partial_payment_amount</t>
+  </si>
+  <si>
+    <t>SELECT CH.IS_PAID_MARKING_REQUIRED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>SELECT LP.BILL_STATUS_ID FROM LP_BILLS LP WHERE LP.CONSUMER_NO = '{ConsumerNo}' and BILLING_MONTH = To_DATE('" + {Billing_Month} + "', 'dd/MM/YYYY')</t>
+  </si>
+  <si>
+    <t>SELECT CH.IS_PARTIAL_PAYMENT_ALLOWED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
   </si>
 </sst>
 </file>
@@ -540,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +586,7 @@
     <col min="23" max="23" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,8 +656,23 @@
       <c r="W1" t="s">
         <v>37</v>
       </c>
+      <c r="X1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -697,8 +739,23 @@
       <c r="W2" t="s">
         <v>41</v>
       </c>
+      <c r="X2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -762,8 +819,23 @@
       <c r="W3" t="s">
         <v>41</v>
       </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -830,8 +902,23 @@
       <c r="W4" t="s">
         <v>41</v>
       </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -898,8 +985,23 @@
       <c r="W5" t="s">
         <v>41</v>
       </c>
+      <c r="X5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -966,8 +1068,23 @@
       <c r="W6" t="s">
         <v>41</v>
       </c>
+      <c r="X6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1034,8 +1151,23 @@
       <c r="W7" t="s">
         <v>41</v>
       </c>
+      <c r="X7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1102,8 +1234,23 @@
       <c r="W8" t="s">
         <v>41</v>
       </c>
+      <c r="X8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1170,8 +1317,23 @@
       <c r="W9" t="s">
         <v>41</v>
       </c>
+      <c r="X9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentViaHome.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentViaHome.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
   <si>
     <t>Case</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>SELECT CH.IS_PARTIAL_PAYMENT_ALLOWED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE,LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
   </si>
 </sst>
 </file>
@@ -569,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +695,7 @@
         <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
@@ -775,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>30</v>
@@ -855,7 +858,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>30</v>
@@ -938,7 +941,7 @@
         <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>30</v>
@@ -1021,7 +1024,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>30</v>
@@ -1104,7 +1107,7 @@
         <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>30</v>
@@ -1187,7 +1190,7 @@
         <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>30</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentViaHome.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentViaHome.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="76">
   <si>
     <t>Case</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE,LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
+  </si>
+  <si>
+    <t>FCY_Check</t>
+  </si>
+  <si>
+    <t>conversion_query</t>
   </si>
 </sst>
 </file>
@@ -570,26 +576,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="127.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="4" customWidth="1"/>
-    <col min="20" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="127.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="4" customWidth="1"/>
+    <col min="21" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,82 +606,88 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>69</v>
       </c>
+      <c r="AD1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -685,80 +697,80 @@
       <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12345678</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>41</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>72</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -768,77 +780,77 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12345678</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>11</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>39</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>41</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>72</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -848,80 +860,80 @@
       <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>12345678</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>39</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>41</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>72</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -931,80 +943,80 @@
       <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>12345678</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>10</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>9</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>11</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>54</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>39</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>41</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>72</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1014,80 +1026,80 @@
       <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>12345678</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>9</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>11</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>55</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>39</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>41</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>65</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>70</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>71</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>72</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1097,80 +1109,80 @@
       <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>12345678</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>8</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>10</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>9</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>56</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>39</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>41</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>70</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>72</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1180,80 +1192,80 @@
       <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>12345678</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>8</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>10</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>11</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>58</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>39</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>41</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>70</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>72</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1263,86 +1275,86 @@
       <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>12345678</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>8</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>10</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>9</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>11</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>57</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>39</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>41</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>70</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>71</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>72</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
